--- a/draft/chapter5.xlsx
+++ b/draft/chapter5.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
-    <sheet name="t1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,33 +24,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>albert-base-v2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bert-base-uncased</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>embedding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>encoders</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate(albert/bert)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+  <si>
+    <t>accuracy (+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAMBADA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy (+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95%+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplexity (–)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accuracy (+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penn Tree Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplexity (–)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WikiText-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enwik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WikiText-103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Children’s Book Test Common Nouns (validation accuracy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winograd Schema Challenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bits per character (–)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bits per character (–)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람 정확도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전의 SOTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가지표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,10 +130,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,12 +155,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,18 +184,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,84 +474,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="16" customWidth="1"/>
+    <col min="2" max="6" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4005120</v>
-      </c>
-      <c r="D4" s="3">
-        <v>23837184</v>
-      </c>
-      <c r="E4" s="1">
-        <f>C4/D4</f>
-        <v>0.16801984663960307</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>7186944</v>
-      </c>
-      <c r="D5" s="3">
-        <v>85054464</v>
+      <c r="D5" s="1">
+        <v>0.93300000000000005</v>
       </c>
       <c r="E5" s="1">
-        <f>C5/D5</f>
-        <v>8.4498139921262691E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>35.76</v>
+      </c>
+      <c r="E6" s="1">
+        <v>46.54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
-        <v>11683584</v>
-      </c>
-      <c r="D6" s="3">
-        <v>109482240</v>
-      </c>
-      <c r="E6" s="1">
-        <f>C6/D6</f>
-        <v>0.10671670583283645</v>
+      <c r="D7" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="E7" s="1">
+        <v>39.14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17.48</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
